--- a/HypocrisyStudy4_cleaned.xlsx
+++ b/HypocrisyStudy4_cleaned.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethhuppert/Desktop/preferences-for-moral-absolutism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3814EEE-DB05-3B4C-98E7-40AC08D69AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892BB6D-9CDE-2E4A-BA35-7EB4E5DB5D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1900" windowWidth="27640" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="780" windowWidth="27640" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HypocrisyStudy2_cleaned" sheetId="1" r:id="rId1"/>
+    <sheet name="HypocrisyStudy4_cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4280,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
